--- a/PoundPupLegacy.Convert/FormalIntermediateLevelSubdivisions.xlsx
+++ b/PoundPupLegacy.Convert/FormalIntermediateLevelSubdivisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEA17F-5451-4D53-AA44-E12D69670DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05345C-D194-44E3-B2D6-960EAF068EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="5340" windowWidth="28810" windowHeight="15460" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
+    <workbookView xWindow="9150" yWindow="6070" windowWidth="28830" windowHeight="15460" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="603">
   <si>
     <t>Id</t>
   </si>
@@ -1837,6 +1837,12 @@
   </si>
   <si>
     <t>L'Oriental</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>GB-NIR</t>
   </si>
 </sst>
 </file>
@@ -2189,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE658DB-E3AF-4E7C-89A8-5DC2E237B286}">
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9170,6 +9176,41 @@
         <v>574</v>
       </c>
     </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44915.741666666669</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44915.741666666669</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>22</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>3992</v>
+      </c>
+      <c r="I200" t="s">
+        <v>601</v>
+      </c>
+      <c r="J200" t="s">
+        <v>601</v>
+      </c>
+      <c r="K200" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PoundPupLegacy.Convert/FormalIntermediateLevelSubdivisions.xlsx
+++ b/PoundPupLegacy.Convert/FormalIntermediateLevelSubdivisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05345C-D194-44E3-B2D6-960EAF068EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F053BF-D988-40D5-A1C1-4750964F1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="6070" windowWidth="28830" windowHeight="15460" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28840" windowHeight="15460" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="L200" sqref="L200"/>
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>0</v>
+        <v>26832</v>
       </c>
       <c r="B200" s="1">
         <v>44915.741666666669</v>
